--- a/data/references/DroughtDB_genes/DroughtDB_exported_genes_21Jan2019.xlsx
+++ b/data/references/DroughtDB_genes/DroughtDB_exported_genes_21Jan2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Edinburgh\onedrive_storage\Guazuma\Genomics\DroughtDB_genes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Edinburgh\onedrive_storage\Guazuma\Genomics\Bioinformatics\data\references\DroughtDB_genes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7044BC21-A9E0-46FC-A8BD-97B83A14A581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30CBF0E-488C-466D-8EBE-D970FCA7976A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="370" windowWidth="16320" windowHeight="9940" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original_Genes" sheetId="2" r:id="rId1"/>
@@ -4762,23 +4762,23 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.6328125" customWidth="1"/>
+    <col min="14" max="14" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1021</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1008</v>
       </c>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1008</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1008</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>1008</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1008</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1008</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1007</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1007</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1007</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1007</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1007</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1007</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1007</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1007</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1007</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1007</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1007</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1007</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1007</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1007</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1007</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1007</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1007</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1007</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1007</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1007</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1007</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1007</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1007</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1007</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1007</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1007</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1007</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1007</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1007</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1007</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1007</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1007</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1007</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1007</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1007</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1007</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1007</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1007</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1007</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1007</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1007</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1007</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1007</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1007</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1007</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1007</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1007</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1007</v>
       </c>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="P55"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1007</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1007</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1007</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1007</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1007</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1007</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1007</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1007</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1007</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1007</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1007</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1007</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1007</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1007</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1007</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1007</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1007</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1007</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1007</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1007</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1007</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="O76"/>
       <c r="P76"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1007</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1007</v>
       </c>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="P78" s="3"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1007</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1007</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1007</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>1007</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1007</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1007</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1007</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1007</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1007</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1007</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1007</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1007</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1007</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1007</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1007</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1007</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1007</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1007</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1007</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1007</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1007</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1007</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1007</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1007</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1007</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1007</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1007</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1007</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1007</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1007</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1007</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1007</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1007</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1007</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1007</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1007</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1007</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1007</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1007</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1007</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>1007</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1007</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1007</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1007</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1007</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1007</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1007</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1007</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1007</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>1007</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1007</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1007</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>1007</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>1007</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1007</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1007</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>1007</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1007</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>1007</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1007</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>1007</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1007</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>1007</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>1007</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>1007</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1007</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>1007</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1007</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>1007</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>1007</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>1007</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>1007</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>1007</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1007</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1007</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>1007</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>1007</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>1007</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>1007</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>1007</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>1007</v>
       </c>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="P159"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>1007</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1007</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>1007</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>1007</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>1007</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1007</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>1007</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>1007</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>1007</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>1007</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>1007</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>1007</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>1007</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>1007</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>1007</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>1007</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>1007</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>1007</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1007</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>1007</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>1007</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>1007</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>1007</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>1007</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1007</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="185" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1007</v>
       </c>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="P185"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1007</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1007</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1007</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>1007</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1007</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1007</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1007</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1007</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1007</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1007</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1007</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1007</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1007</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1007</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1007</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1007</v>
       </c>
@@ -13874,24 +13874,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85FCBC8-E80C-4D48-8872-3CA6B64498CB}">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="7" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="3" max="7" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1021</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1007</v>
       </c>
@@ -13980,7 +13980,7 @@
       </c>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1007</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1007</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1007</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1007</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1007</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1007</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1007</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1007</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1007</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1007</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1007</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1007</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1007</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1007</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1007</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1007</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1007</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1007</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1007</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1007</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1007</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1007</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1007</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1007</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1007</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1007</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1007</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1007</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1007</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1007</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1007</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1007</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1007</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1007</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1007</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1007</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1007</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1007</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1007</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1007</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1007</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1007</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1007</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1007</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1007</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1007</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1007</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1007</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1007</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1007</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1007</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1007</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1007</v>
       </c>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1007</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1007</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1007</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1007</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1007</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1007</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1007</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1007</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1007</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1007</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1007</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1007</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1007</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1007</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1007</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1007</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1007</v>
       </c>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1007</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1007</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1007</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>1007</v>
       </c>
@@ -17212,7 +17212,7 @@
       </c>
       <c r="O76"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1007</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1007</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1007</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1007</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1007</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1007</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1007</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1007</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1007</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1007</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1007</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1007</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1007</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1007</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1007</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1007</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1007</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1007</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1007</v>
       </c>
@@ -18042,7 +18042,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1007</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1007</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1007</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1007</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1007</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1007</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1007</v>
       </c>
@@ -18347,7 +18347,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1007</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1007</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1007</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1007</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1007</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1007</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1007</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1007</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1007</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1007</v>
       </c>
@@ -18781,7 +18781,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1007</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1007</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1007</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1007</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1007</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1007</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>1007</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1007</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1007</v>
       </c>
@@ -19171,7 +19171,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1007</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1007</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1007</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1007</v>
       </c>
@@ -19344,7 +19344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1007</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1007</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>1007</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1007</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1007</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>1007</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>1007</v>
       </c>
@@ -19652,7 +19652,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1007</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1007</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>1007</v>
       </c>
@@ -19784,7 +19784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1007</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>1007</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1007</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>1007</v>
       </c>
@@ -19960,7 +19960,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1007</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>1007</v>
       </c>
@@ -20048,7 +20048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>1007</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>1007</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1007</v>
       </c>
@@ -20177,7 +20177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>1007</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1007</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>1007</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>1007</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>1007</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>1007</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>1007</v>
       </c>
@@ -20477,7 +20477,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1007</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1007</v>
       </c>
@@ -20562,7 +20562,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>1007</v>
       </c>
@@ -20606,7 +20606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>1007</v>
       </c>
@@ -20650,7 +20650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>1007</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1007</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>1007</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="159" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>1007</v>
       </c>
@@ -20824,7 +20824,7 @@
       </c>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>1007</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1007</v>
       </c>
@@ -20912,7 +20912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>1007</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>1007</v>
       </c>
@@ -21000,7 +21000,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>1007</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1007</v>
       </c>
@@ -21088,7 +21088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>1007</v>
       </c>
@@ -21132,7 +21132,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>1007</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>1007</v>
       </c>
@@ -21220,7 +21220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>1007</v>
       </c>
@@ -21264,7 +21264,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>1007</v>
       </c>
@@ -21308,7 +21308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>1007</v>
       </c>
@@ -21352,7 +21352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>1007</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>1007</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>1007</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>1007</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>1007</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>1007</v>
       </c>
@@ -21613,7 +21613,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1007</v>
       </c>
@@ -21657,7 +21657,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1007</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1007</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1007</v>
       </c>
@@ -21789,7 +21789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1007</v>
       </c>
@@ -21833,7 +21833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>1007</v>
       </c>
@@ -21877,7 +21877,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1007</v>
       </c>
@@ -21921,7 +21921,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1007</v>
       </c>
@@ -21966,7 +21966,7 @@
       </c>
       <c r="O185"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1007</v>
       </c>
@@ -22010,7 +22010,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1007</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1007</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>1007</v>
       </c>
@@ -22139,7 +22139,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1007</v>
       </c>
@@ -22183,7 +22183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1007</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1007</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1007</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1007</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1007</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>1008</v>
       </c>
@@ -22444,7 +22444,7 @@
       </c>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1008</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1008</v>
       </c>
@@ -22514,7 +22514,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1008</v>
       </c>
@@ -22546,7 +22546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1008</v>
       </c>
@@ -22581,7 +22581,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1008</v>
       </c>
@@ -22630,22 +22630,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G203"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>996</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22704,7 +22704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>989</v>
       </c>
@@ -22761,7 +22761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>990</v>
       </c>
@@ -22788,7 +22788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>1003</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>993</v>
       </c>
@@ -22833,7 +22833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>993</v>
       </c>
@@ -22851,7 +22851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>993</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>993</v>
       </c>
@@ -22887,7 +22887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>993</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>993</v>
       </c>
@@ -22923,7 +22923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>993</v>
       </c>
@@ -22937,7 +22937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>993</v>
       </c>
@@ -22951,7 +22951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>60</v>
       </c>
@@ -22959,7 +22959,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G16" t="s">
         <v>65</v>
       </c>
@@ -22970,7 +22970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
         <v>71</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
         <v>78</v>
       </c>
@@ -22992,7 +22992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
         <v>83</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G20" t="s">
         <v>89</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
         <v>95</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G22" t="s">
         <v>101</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G23" t="s">
         <v>106</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G24" t="s">
         <v>110</v>
       </c>
@@ -23058,7 +23058,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G25" t="s">
         <v>116</v>
       </c>
@@ -23069,7 +23069,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G26" t="s">
         <v>123</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G27" t="s">
         <v>129</v>
       </c>
@@ -23091,7 +23091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G28" t="s">
         <v>134</v>
       </c>
@@ -23102,7 +23102,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G29" t="s">
         <v>139</v>
       </c>
@@ -23113,7 +23113,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G30" t="s">
         <v>146</v>
       </c>
@@ -23124,7 +23124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G31" t="s">
         <v>152</v>
       </c>
@@ -23135,7 +23135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G32" t="s">
         <v>156</v>
       </c>
@@ -23146,7 +23146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G33" t="s">
         <v>162</v>
       </c>
@@ -23157,7 +23157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G34" t="s">
         <v>168</v>
       </c>
@@ -23168,7 +23168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G35" t="s">
         <v>173</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G36" t="s">
         <v>179</v>
       </c>
@@ -23190,7 +23190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G37" t="s">
         <v>185</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G38" t="s">
         <v>190</v>
       </c>
@@ -23212,7 +23212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G39" t="s">
         <v>192</v>
       </c>
@@ -23223,7 +23223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G40" t="s">
         <v>198</v>
       </c>
@@ -23234,7 +23234,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G41" t="s">
         <v>205</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G42" t="s">
         <v>210</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G43" t="s">
         <v>216</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G44" t="s">
         <v>221</v>
       </c>
@@ -23278,7 +23278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G45" t="s">
         <v>227</v>
       </c>
@@ -23289,7 +23289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G46" t="s">
         <v>227</v>
       </c>
@@ -23300,7 +23300,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G47" t="s">
         <v>238</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G48" t="s">
         <v>243</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G49" t="s">
         <v>249</v>
       </c>
@@ -23333,7 +23333,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G50" t="s">
         <v>254</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G51" t="s">
         <v>259</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G52" t="s">
         <v>261</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G53" t="s">
         <v>263</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G54" t="s">
         <v>269</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G55" t="s">
         <v>275</v>
       </c>
@@ -23399,7 +23399,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G56" t="s">
         <v>281</v>
       </c>
@@ -23410,7 +23410,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G57" t="s">
         <v>286</v>
       </c>
@@ -23421,7 +23421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G58" t="s">
         <v>290</v>
       </c>
@@ -23432,7 +23432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G59" t="s">
         <v>294</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G60" t="s">
         <v>301</v>
       </c>
@@ -23454,7 +23454,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G61" t="s">
         <v>307</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G62" t="s">
         <v>313</v>
       </c>
@@ -23476,7 +23476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G63" t="s">
         <v>319</v>
       </c>
@@ -23487,7 +23487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G64" t="s">
         <v>323</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G65" t="s">
         <v>329</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G66" t="s">
         <v>334</v>
       </c>
@@ -23520,7 +23520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G67" t="s">
         <v>339</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G68" t="s">
         <v>343</v>
       </c>
@@ -23542,7 +23542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G69" t="s">
         <v>343</v>
       </c>
@@ -23553,7 +23553,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G70" t="s">
         <v>352</v>
       </c>
@@ -23564,7 +23564,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G71" t="s">
         <v>357</v>
       </c>
@@ -23575,7 +23575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G72" t="s">
         <v>363</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G73" t="s">
         <v>368</v>
       </c>
@@ -23597,7 +23597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G74" t="s">
         <v>374</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G75" t="s">
         <v>380</v>
       </c>
@@ -23616,7 +23616,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G76" t="s">
         <v>385</v>
       </c>
@@ -23627,7 +23627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G77" t="s">
         <v>387</v>
       </c>
@@ -23638,7 +23638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G78" t="s">
         <v>392</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G79" t="s">
         <v>395</v>
       </c>
@@ -23660,7 +23660,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G80" t="s">
         <v>401</v>
       </c>
@@ -23671,7 +23671,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G81" t="s">
         <v>407</v>
       </c>
@@ -23682,7 +23682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G82" t="s">
         <v>412</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G83" t="s">
         <v>417</v>
       </c>
@@ -23704,7 +23704,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G84" t="s">
         <v>423</v>
       </c>
@@ -23712,7 +23712,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G85" t="s">
         <v>427</v>
       </c>
@@ -23723,7 +23723,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G86" t="s">
         <v>432</v>
       </c>
@@ -23734,7 +23734,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G87" t="s">
         <v>438</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G88" t="s">
         <v>443</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G89" t="s">
         <v>448</v>
       </c>
@@ -23767,7 +23767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G90" t="s">
         <v>451</v>
       </c>
@@ -23778,7 +23778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G91" t="s">
         <v>457</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G92" t="s">
         <v>462</v>
       </c>
@@ -23800,7 +23800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G93" t="s">
         <v>467</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G94" t="s">
         <v>472</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G95" t="s">
         <v>477</v>
       </c>
@@ -23833,7 +23833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G96" t="s">
         <v>481</v>
       </c>
@@ -23844,7 +23844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G97" t="s">
         <v>483</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G98" t="s">
         <v>488</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G99" t="s">
         <v>492</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G100" t="s">
         <v>497</v>
       </c>
@@ -23888,7 +23888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G101" t="s">
         <v>501</v>
       </c>
@@ -23899,7 +23899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G102" t="s">
         <v>503</v>
       </c>
@@ -23910,7 +23910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G103" t="s">
         <v>509</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G104" t="s">
         <v>515</v>
       </c>
@@ -23932,7 +23932,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="105" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G105" t="s">
         <v>520</v>
       </c>
@@ -23943,7 +23943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G106" t="s">
         <v>525</v>
       </c>
@@ -23954,7 +23954,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="107" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G107" t="s">
         <v>531</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="108" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G108" t="s">
         <v>536</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G109" t="s">
         <v>536</v>
       </c>
@@ -23987,7 +23987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G110" t="s">
         <v>546</v>
       </c>
@@ -23998,7 +23998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G111" t="s">
         <v>550</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G112" t="s">
         <v>555</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="113" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G113" t="s">
         <v>560</v>
       </c>
@@ -24028,7 +24028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G114" t="s">
         <v>565</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="115" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G115" t="s">
         <v>570</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G116" t="s">
         <v>576</v>
       </c>
@@ -24061,7 +24061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G117" t="s">
         <v>579</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G118" t="s">
         <v>582</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G119" t="s">
         <v>588</v>
       </c>
@@ -24091,7 +24091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G120" t="s">
         <v>593</v>
       </c>
@@ -24102,7 +24102,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="121" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G121" t="s">
         <v>598</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G122" t="s">
         <v>603</v>
       </c>
@@ -24124,7 +24124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G123" t="s">
         <v>608</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G124" t="s">
         <v>612</v>
       </c>
@@ -24146,7 +24146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G125" t="s">
         <v>615</v>
       </c>
@@ -24157,7 +24157,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G126" t="s">
         <v>621</v>
       </c>
@@ -24168,7 +24168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G127" t="s">
         <v>626</v>
       </c>
@@ -24179,7 +24179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G128" t="s">
         <v>631</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G129" t="s">
         <v>636</v>
       </c>
@@ -24201,7 +24201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G130" t="s">
         <v>641</v>
       </c>
@@ -24212,7 +24212,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G131" t="s">
         <v>647</v>
       </c>
@@ -24223,7 +24223,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G132" t="s">
         <v>652</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G133" t="s">
         <v>657</v>
       </c>
@@ -24245,7 +24245,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G134" t="s">
         <v>662</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G135" t="s">
         <v>667</v>
       </c>
@@ -24267,7 +24267,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G136" t="s">
         <v>670</v>
       </c>
@@ -24278,7 +24278,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G137" t="s">
         <v>674</v>
       </c>
@@ -24289,7 +24289,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G138" t="s">
         <v>679</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G139" t="s">
         <v>683</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G140" t="s">
         <v>687</v>
       </c>
@@ -24322,7 +24322,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G141" t="s">
         <v>692</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G142" t="s">
         <v>697</v>
       </c>
@@ -24344,7 +24344,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G143" t="s">
         <v>701</v>
       </c>
@@ -24355,7 +24355,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G144" t="s">
         <v>705</v>
       </c>
@@ -24366,7 +24366,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G145" t="s">
         <v>709</v>
       </c>
@@ -24377,7 +24377,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G146" t="s">
         <v>711</v>
       </c>
@@ -24388,7 +24388,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G147" t="s">
         <v>716</v>
       </c>
@@ -24399,7 +24399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G148" t="s">
         <v>722</v>
       </c>
@@ -24410,7 +24410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G149" t="s">
         <v>728</v>
       </c>
@@ -24421,7 +24421,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G150" t="s">
         <v>734</v>
       </c>
@@ -24432,7 +24432,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G151" t="s">
         <v>740</v>
       </c>
@@ -24443,7 +24443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G152" t="s">
         <v>744</v>
       </c>
@@ -24454,7 +24454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G153" t="s">
         <v>749</v>
       </c>
@@ -24465,7 +24465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G154" t="s">
         <v>751</v>
       </c>
@@ -24476,7 +24476,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G155" t="s">
         <v>757</v>
       </c>
@@ -24487,7 +24487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G156" t="s">
         <v>762</v>
       </c>
@@ -24498,7 +24498,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G157" t="s">
         <v>768</v>
       </c>
@@ -24509,7 +24509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G158" t="s">
         <v>772</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G159" t="s">
         <v>774</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G160" t="s">
         <v>780</v>
       </c>
@@ -24542,7 +24542,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="161" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G161" t="s">
         <v>785</v>
       </c>
@@ -24553,7 +24553,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G162" t="s">
         <v>47</v>
       </c>
@@ -24564,7 +24564,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G163" t="s">
         <v>794</v>
       </c>
@@ -24575,7 +24575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G164" t="s">
         <v>799</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G165" t="s">
         <v>804</v>
       </c>
@@ -24597,7 +24597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G166" t="s">
         <v>809</v>
       </c>
@@ -24608,7 +24608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G167" t="s">
         <v>814</v>
       </c>
@@ -24619,7 +24619,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G168" t="s">
         <v>818</v>
       </c>
@@ -24630,7 +24630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G169" t="s">
         <v>823</v>
       </c>
@@ -24641,7 +24641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G170" t="s">
         <v>828</v>
       </c>
@@ -24652,7 +24652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G171" t="s">
         <v>833</v>
       </c>
@@ -24663,7 +24663,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="172" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G172" t="s">
         <v>838</v>
       </c>
@@ -24674,7 +24674,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G173" t="s">
         <v>843</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G174" t="s">
         <v>848</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G175" t="s">
         <v>853</v>
       </c>
@@ -24707,7 +24707,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="176" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G176" t="s">
         <v>858</v>
       </c>
@@ -24718,7 +24718,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="177" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G177" t="s">
         <v>863</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="178" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G178" t="s">
         <v>867</v>
       </c>
@@ -24737,7 +24737,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="179" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G179" t="s">
         <v>872</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G180" t="s">
         <v>877</v>
       </c>
@@ -24759,7 +24759,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G181" t="s">
         <v>882</v>
       </c>
@@ -24770,7 +24770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G182" t="s">
         <v>887</v>
       </c>
@@ -24781,7 +24781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G183" t="s">
         <v>892</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G184" t="s">
         <v>897</v>
       </c>
@@ -24800,7 +24800,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="185" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G185" t="s">
         <v>902</v>
       </c>
@@ -24811,7 +24811,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="186" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G186" t="s">
         <v>907</v>
       </c>
@@ -24822,7 +24822,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="187" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G187" t="s">
         <v>911</v>
       </c>
@@ -24833,7 +24833,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="188" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G188" t="s">
         <v>917</v>
       </c>
@@ -24844,7 +24844,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="189" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G189" t="s">
         <v>923</v>
       </c>
@@ -24855,7 +24855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G190" t="s">
         <v>928</v>
       </c>
@@ -24866,7 +24866,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="191" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G191" t="s">
         <v>932</v>
       </c>
@@ -24874,7 +24874,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="192" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G192" t="s">
         <v>935</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="193" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G193" t="s">
         <v>940</v>
       </c>
@@ -24896,7 +24896,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G194" t="s">
         <v>945</v>
       </c>
@@ -24907,7 +24907,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G195" t="s">
         <v>947</v>
       </c>
@@ -24918,7 +24918,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="196" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G196" t="s">
         <v>952</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G197" t="s">
         <v>957</v>
       </c>
@@ -24937,7 +24937,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="198" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G198" t="s">
         <v>957</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="199" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G199" t="s">
         <v>965</v>
       </c>
@@ -24956,7 +24956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="200" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G200" t="s">
         <v>971</v>
       </c>
@@ -24967,7 +24967,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="201" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G201" t="s">
         <v>976</v>
       </c>
@@ -24978,7 +24978,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="202" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G202" t="s">
         <v>980</v>
       </c>
@@ -24989,7 +24989,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="203" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G203" t="s">
         <v>982</v>
       </c>
